--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bd0de0588f35d11/Desktop/TFI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A8807EF-3754-47F7-AAE7-E81FBFAFFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4A8807EF-3754-47F7-AAE7-E81FBFAFFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A41283-5251-4B04-9609-2AAFD01EA974}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E3B8E14-7640-492F-973D-56666B196F03}"/>
   </bookViews>
@@ -425,6 +425,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -119,6 +119,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +425,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
